--- a/public/data/soil/soil_table_sudan.xlsx
+++ b/public/data/soil/soil_table_sudan.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>107982.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>89.863</v>
+        <v>110.685</v>
       </c>
     </row>
     <row r="3">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>234415</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.423</v>
+        <v>254.269</v>
       </c>
     </row>
     <row r="4">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>256242.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>155.784</v>
+        <v>164.735</v>
       </c>
     </row>
     <row r="5">
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>202246.8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>164.648</v>
+        <v>183.598</v>
       </c>
     </row>
     <row r="6">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>225504.8</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>175.453</v>
+        <v>241.338</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>158260.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>176.232</v>
+        <v>188.055</v>
       </c>
     </row>
     <row r="8">
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>177763.4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>183.805</v>
+        <v>173.38</v>
       </c>
     </row>
     <row r="9">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>715030.6</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>113.821</v>
+        <v>121.926</v>
       </c>
     </row>
     <row r="10">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>397365.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>216.315</v>
+        <v>235.461</v>
       </c>
     </row>
     <row r="11">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>154567.3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>89.966</v>
+        <v>96.913</v>
       </c>
     </row>
     <row r="12">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>558346.7</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>269.112</v>
+        <v>268.082</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>554185.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>408.307</v>
+        <v>384.842</v>
       </c>
     </row>
     <row r="14">
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>300266.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>198.726</v>
+        <v>192.107</v>
       </c>
     </row>
     <row r="15">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>138549.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>89.337</v>
+        <v>92.757</v>
       </c>
     </row>
     <row r="16">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>171064.9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>173.36</v>
+        <v>196.536</v>
       </c>
     </row>
     <row r="17">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>148331.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>127.182</v>
+        <v>141.876</v>
       </c>
     </row>
     <row r="18">
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137423.6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>106.316</v>
+        <v>118.762</v>
       </c>
     </row>
     <row r="19">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>605493.1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>433.871</v>
+        <v>453.43</v>
       </c>
     </row>
     <row r="20">
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>373837.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>175.12</v>
+        <v>192.499</v>
       </c>
     </row>
     <row r="21">
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>878293.7</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1232.228</v>
+        <v>1348.313</v>
       </c>
     </row>
     <row r="22">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>267320.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>424.604</v>
+        <v>487.13</v>
       </c>
     </row>
     <row r="23">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>97757.8</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>83.631</v>
+        <v>248.371</v>
       </c>
     </row>
     <row r="24">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2482.2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>4.513</v>
+        <v>108.49</v>
       </c>
     </row>
     <row r="25">
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42537</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>72.201</v>
+        <v>139.864</v>
       </c>
     </row>
     <row r="26">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>192514.3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>163.363</v>
+        <v>245.23</v>
       </c>
     </row>
     <row r="27">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>305058.7</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>114.547</v>
+        <v>135.025</v>
       </c>
     </row>
     <row r="28">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2409.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.097</v>
+        <v>45.795</v>
       </c>
     </row>
     <row r="29">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2953.8</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35977.6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>17.335</v>
+        <v>88.076</v>
       </c>
     </row>
     <row r="31">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8732.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.127</v>
+        <v>27.453</v>
       </c>
     </row>
     <row r="32">
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>83263.7</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.777</v>
+        <v>230.458</v>
       </c>
     </row>
     <row r="33">
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>37976.9</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8202.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.163</v>
+        <v>14.371</v>
       </c>
     </row>
     <row r="35">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>384256</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>399.843</v>
+        <v>591.579</v>
       </c>
     </row>
     <row r="36">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>319620.2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>503.261</v>
+        <v>537.771</v>
       </c>
     </row>
     <row r="37">
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>333955.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>100.055</v>
+        <v>179.314</v>
       </c>
     </row>
     <row r="38">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>115819.3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>70.568</v>
+        <v>339.254</v>
       </c>
     </row>
     <row r="39">
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>531060.4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>250.413</v>
+        <v>315.007</v>
       </c>
     </row>
     <row r="40">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>204702.5</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>375.253</v>
+        <v>362.69</v>
       </c>
     </row>
     <row r="41">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>179393.5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>52.599</v>
+        <v>189.234</v>
       </c>
     </row>
     <row r="42">
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>429140.5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>314.332</v>
+        <v>354.314</v>
       </c>
     </row>
     <row r="43">
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>347538.6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>104.446</v>
+        <v>241.659</v>
       </c>
     </row>
     <row r="44">
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>664242.9</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>707.36</v>
+        <v>741.256</v>
       </c>
     </row>
     <row r="45">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>7077.4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.429</v>
+        <v>21.266</v>
       </c>
     </row>
     <row r="46">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>22796.2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>11.877</v>
+        <v>100.988</v>
       </c>
     </row>
     <row r="47">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>7845.4</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>6.097</v>
+        <v>62.261</v>
       </c>
     </row>
     <row r="48">
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1405</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.091</v>
+        <v>14.925</v>
       </c>
     </row>
     <row r="49">
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>165.9</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="50">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>4413.3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1.632</v>
+        <v>25.689</v>
       </c>
     </row>
     <row r="51">
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1962.7</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.848</v>
+        <v>30.654</v>
       </c>
     </row>
     <row r="52">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>47161.1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>34.279</v>
+        <v>173.673</v>
       </c>
     </row>
     <row r="53">
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>3439.9</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.55</v>
+        <v>16.441</v>
       </c>
     </row>
     <row r="54">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>7890.8</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>3.819</v>
+        <v>16.676</v>
       </c>
     </row>
     <row r="55">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>31310.9</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>27.126</v>
+        <v>108.296</v>
       </c>
     </row>
     <row r="56">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>14381.1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>4.681</v>
+        <v>75.937</v>
       </c>
     </row>
     <row r="57">
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>5096.3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>4.377</v>
+        <v>50.713</v>
       </c>
     </row>
     <row r="58">
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>48015.9</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>28.731</v>
+        <v>170.334</v>
       </c>
     </row>
     <row r="59">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>496054.6</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>338.304</v>
+        <v>326.267</v>
       </c>
     </row>
     <row r="60">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>500217.5</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>428.13</v>
+        <v>397.97</v>
       </c>
     </row>
     <row r="61">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>603580.9</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>320.721</v>
+        <v>335.886</v>
       </c>
     </row>
     <row r="62">
@@ -2996,28 +2996,28 @@
         <v>101</v>
       </c>
       <c r="D62" t="n">
-        <v>156.4</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>3001.3</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4361.2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>621676.4</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.989</v>
+        <v>2.281</v>
       </c>
       <c r="K62" t="n">
-        <v>605.427</v>
+        <v>718.619</v>
       </c>
     </row>
     <row r="63">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>575587.5</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1138.447</v>
+        <v>1230.206</v>
       </c>
     </row>
     <row r="64">
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>30758.9</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>67.128</v>
+        <v>99.939</v>
       </c>
     </row>
     <row r="65">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>282380.1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>444.677</v>
+        <v>660.322</v>
       </c>
     </row>
     <row r="66">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>92591.6</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>129.939</v>
+        <v>116.54</v>
       </c>
     </row>
     <row r="67">
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>460927.8</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>147.984</v>
+        <v>151.246</v>
       </c>
     </row>
     <row r="68">
@@ -3212,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1031.6</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>471533.8</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>206.614</v>
+        <v>214.685</v>
       </c>
     </row>
     <row r="69">
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>276950.3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>82.745</v>
+        <v>89.156</v>
       </c>
     </row>
     <row r="70">
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>400209.3</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>201.932</v>
+        <v>208.694</v>
       </c>
     </row>
     <row r="71">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>284827.2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>72.913</v>
+        <v>75.911</v>
       </c>
     </row>
     <row r="72">
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1237.5</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>570919.5</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.098</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>490.526</v>
+        <v>561.616</v>
       </c>
     </row>
     <row r="73">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>546556.3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>192.308</v>
+        <v>219.392</v>
       </c>
     </row>
     <row r="74">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>210149.2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>115.877</v>
+        <v>118.021</v>
       </c>
     </row>
     <row r="75">
@@ -3457,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>82.7</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>820420</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>573.652</v>
+        <v>602.11</v>
       </c>
     </row>
     <row r="76">
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>494266.7</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>394.775</v>
+        <v>409.417</v>
       </c>
     </row>
     <row r="77">
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>404418.3</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>120.052</v>
+        <v>128.652</v>
       </c>
     </row>
     <row r="78">
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>194240.4</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>250.054</v>
+        <v>355.539</v>
       </c>
     </row>
     <row r="79">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>265838.2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>270.542</v>
+        <v>427.424</v>
       </c>
     </row>
     <row r="80">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>278025.4</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>222.598</v>
+        <v>228.213</v>
       </c>
     </row>
     <row r="81">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>503948</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>436.896</v>
+        <v>489.571</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_sudan.xlsx
+++ b/public/data/soil/soil_table_sudan.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>57994.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>195907.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>124596.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>146675.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>48780.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107701</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>184344.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>332066.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>295730.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284870.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>996175.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>931027</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>253461.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3058.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59483.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>67472.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>18814.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>187536.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>29754.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>656575.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>185238.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5915.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5294.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7721.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>5687.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8983.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8217.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>27291.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>37773.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>28795.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6976.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>233093.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>53707.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3363.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>27382.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>415303.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>118514.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>120250.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2621.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>237050.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>16820.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103205.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>15841.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>12045</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>412.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>227.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>43496.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>5811.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>19516.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>38629.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>21667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>11658.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>34767.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>121425.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>84379.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>114388.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>295206.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>441521.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>212202.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>100474.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>47426.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>162065.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>12642.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>161704.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>7414.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>122692.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>272655.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>24494.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>294865</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>473125</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>42496.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>19204.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>81770.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>37070.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>109870.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
